--- a/RPS_mls_fivethirtyeight.xlsx
+++ b/RPS_mls_fivethirtyeight.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0797803C-FB37-954A-B950-355A33417644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C00C265-BF90-934F-ABD9-96EC1C7016C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{B9C715C2-801E-454E-84C1-85B400CBBD96}"/>
+    <workbookView xWindow="760" yWindow="1660" windowWidth="27240" windowHeight="16440" xr2:uid="{B9C715C2-801E-454E-84C1-85B400CBBD96}"/>
   </bookViews>
   <sheets>
     <sheet name="fivethirtyeight" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -159,10 +159,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,9 +195,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29B6064-C916-1949-9AA3-D2BBB6F20F98}">
   <dimension ref="B1:S425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:B425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,8 +587,8 @@
         <v>0.12331462500000001</v>
       </c>
       <c r="L2">
-        <f>AVERAGE(J2:J1000)</f>
-        <v>0.18879922616071426</v>
+        <f>AVERAGE(J2:J999)</f>
+        <v>0.19508867862318843</v>
       </c>
       <c r="N2">
         <f>IF(H2&gt;I2,1,0)</f>
@@ -3596,6 +3604,40 @@
       <c r="G58">
         <v>0.27750000000000002</v>
       </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ref="J58:J70" si="7">S58*(1/2)</f>
+        <v>0.19223825</v>
+      </c>
+      <c r="N58">
+        <f t="shared" ref="N58:N70" si="8">IF(H58&gt;I58,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <f t="shared" ref="O58:O70" si="9">IF(H58=I58,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f t="shared" ref="P58:P70" si="10">IF(H58&lt;I58,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" ref="Q58:Q70" si="11">(E58-N58)^2</f>
+        <v>0.30747025</v>
+      </c>
+      <c r="R58">
+        <f t="shared" ref="R58:R70" si="12">((E58+F58)-(N58+O58))^2+Q58</f>
+        <v>0.3844765</v>
+      </c>
+      <c r="S58">
+        <f t="shared" ref="S58:S70" si="13">((E58+F58+G58)-(N58+O58+P58))^2+R58</f>
+        <v>0.3844765</v>
+      </c>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
@@ -3616,6 +3658,40 @@
       <c r="G59">
         <v>0.25069999999999998</v>
       </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="7"/>
+        <v>0.16025412500000003</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="11"/>
+        <v>0.25765776000000007</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="12"/>
+        <v>0.32050825000000005</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="13"/>
+        <v>0.32050825000000005</v>
+      </c>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
@@ -3636,6 +3712,40 @@
       <c r="G60">
         <v>0.2853</v>
       </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="7"/>
+        <v>0.18346120499999999</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="11"/>
+        <v>0.28558336000000001</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="12"/>
+        <v>0.36692239999999998</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="13"/>
+        <v>0.36692240999999998</v>
+      </c>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
@@ -3656,6 +3766,40 @@
       <c r="G61">
         <v>0.30909999999999999</v>
       </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="7"/>
+        <v>0.209083405</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="11"/>
+        <v>0.32262400000000008</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="12"/>
+        <v>0.41816681</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="13"/>
+        <v>0.41816681</v>
+      </c>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
@@ -3676,6 +3820,40 @@
       <c r="G62">
         <v>0.15090000000000001</v>
       </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="7"/>
+        <v>0.20146810500000001</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="11"/>
+        <v>0.38019556000000004</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="12"/>
+        <v>0.40293620000000002</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="13"/>
+        <v>0.40293621000000002</v>
+      </c>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
@@ -3696,6 +3874,40 @@
       <c r="G63">
         <v>0.29420000000000002</v>
       </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="7"/>
+        <v>0.35131923999999998</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="11"/>
+        <v>0.20448484</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="12"/>
+        <v>0.70263847999999995</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="13"/>
+        <v>0.70263847999999995</v>
+      </c>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
@@ -3716,8 +3928,42 @@
       <c r="G64">
         <v>0.25059999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="7"/>
+        <v>0.40793492999999997</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="11"/>
+        <v>0.25441935999999998</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="12"/>
+        <v>0.8158698499999999</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="13"/>
+        <v>0.81586985999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>45045</v>
       </c>
@@ -3736,8 +3982,42 @@
       <c r="G65">
         <v>0.32369999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="7"/>
+        <v>0.13929364999999999</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="11"/>
+        <v>0.17380561</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="12"/>
+        <v>0.27858729999999998</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="13"/>
+        <v>0.27858729999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>45045</v>
       </c>
@@ -3756,8 +4036,42 @@
       <c r="G66">
         <v>0.20069999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="7"/>
+        <v>0.45804136999999989</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="11"/>
+        <v>0.27720224999999998</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="12"/>
+        <v>0.91608273999999978</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="13"/>
+        <v>0.91608273999999978</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>45045</v>
       </c>
@@ -3776,8 +4090,42 @@
       <c r="G67">
         <v>0.27139999999999997</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="7"/>
+        <v>0.1344226</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="11"/>
+        <v>0.19518724000000001</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="12"/>
+        <v>0.26884520000000001</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="13"/>
+        <v>0.26884520000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>45045</v>
       </c>
@@ -3796,8 +4144,42 @@
       <c r="G68">
         <v>0.37130000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="7"/>
+        <v>0.13369585</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="11"/>
+        <v>0.12952801</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="12"/>
+        <v>0.26739170000000001</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="13"/>
+        <v>0.26739170000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>45045</v>
       </c>
@@ -3816,50 +4198,136 @@
       <c r="G69">
         <v>0.19400000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="7"/>
+        <v>0.17485439</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="11"/>
+        <v>0.31203396</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="12"/>
+        <v>0.34970877</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="13"/>
+        <v>0.34970878</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="C70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0.26879999999999998</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="7"/>
+        <v>0.14229504000000001</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="11"/>
+        <v>0.21233663999999999</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="12"/>
+        <v>0.28459008000000002</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="13"/>
+        <v>0.28459008000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B71" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" t="s">
         <v>33</v>
       </c>
-      <c r="D70" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70">
-        <v>0.4612</v>
-      </c>
-      <c r="F70">
-        <v>0.26869999999999999</v>
-      </c>
-      <c r="G70">
-        <v>0.27010000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="1">
-        <v>45046</v>
-      </c>
-      <c r="C71" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="F71">
+        <v>0.25</v>
+      </c>
+      <c r="G71">
+        <v>0.4415</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>45052</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E72">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="F72">
+        <v>0.26740000000000003</v>
+      </c>
+      <c r="G72">
+        <v>0.38340000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>45052</v>
       </c>
@@ -3869,19 +4337,37 @@
       <c r="D73" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>0.37340000000000001</v>
+      </c>
+      <c r="F73">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="G73">
+        <v>0.36580000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>45052</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E74">
+        <v>0.44829999999999998</v>
+      </c>
+      <c r="F74">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="G74">
+        <v>0.26850000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>45052</v>
       </c>
@@ -3891,8 +4377,17 @@
       <c r="D75" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>0.48020000000000002</v>
+      </c>
+      <c r="F75">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="G75">
+        <v>0.25530000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>45052</v>
       </c>
@@ -3902,8 +4397,17 @@
       <c r="D76" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>0.6</v>
+      </c>
+      <c r="F76">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="G76">
+        <v>0.1744</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
         <v>45052</v>
       </c>
@@ -3913,52 +4417,97 @@
       <c r="D77" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F77">
+        <v>0.2485</v>
+      </c>
+      <c r="G77">
+        <v>0.23949999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
         <v>45052</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="E78">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="F78">
+        <v>0.25619999999999998</v>
+      </c>
+      <c r="G78">
+        <v>0.2172</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
         <v>45052</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="E79">
+        <v>0.53810000000000002</v>
+      </c>
+      <c r="F79">
+        <v>0.2641</v>
+      </c>
+      <c r="G79">
+        <v>0.1978</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>45052</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E80">
+        <v>0.63880000000000003</v>
+      </c>
+      <c r="F80">
+        <v>0.2298</v>
+      </c>
+      <c r="G80">
+        <v>0.13139999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
         <v>45052</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E81">
+        <v>0.54930000000000001</v>
+      </c>
+      <c r="F81">
+        <v>0.25059999999999999</v>
+      </c>
+      <c r="G81">
+        <v>0.2001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
         <v>45052</v>
       </c>
@@ -3968,85 +4517,157 @@
       <c r="D82" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="F82">
+        <v>0.2399</v>
+      </c>
+      <c r="G82">
+        <v>0.24349999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
         <v>45052</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E83">
+        <v>0.56869999999999998</v>
+      </c>
+      <c r="F83">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="G83">
+        <v>0.19550000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E84">
+        <v>0.60589999999999999</v>
+      </c>
+      <c r="F84">
+        <v>0.25390000000000001</v>
+      </c>
+      <c r="G84">
+        <v>0.14019999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
-        <v>45053</v>
+        <v>45059</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E85">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="F85">
+        <v>0.2336</v>
+      </c>
+      <c r="G85">
+        <v>0.16569999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <v>45059</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E86">
+        <v>0.438</v>
+      </c>
+      <c r="F86">
+        <v>0.26490000000000002</v>
+      </c>
+      <c r="G86">
+        <v>0.29709999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
         <v>45059</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E87">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="F87">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="G87">
+        <v>0.20449999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <v>45059</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E88">
+        <v>0.65759999999999996</v>
+      </c>
+      <c r="F88">
+        <v>0.20430000000000001</v>
+      </c>
+      <c r="G88">
+        <v>0.1381</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
         <v>45059</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E89">
+        <v>0.47189999999999999</v>
+      </c>
+      <c r="F89">
+        <v>0.29239999999999999</v>
+      </c>
+      <c r="G89">
+        <v>0.23580000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <v>45059</v>
       </c>
@@ -4056,30 +4677,57 @@
       <c r="D90" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>0.45490000000000003</v>
+      </c>
+      <c r="F90">
+        <v>0.2626</v>
+      </c>
+      <c r="G90">
+        <v>0.28260000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
         <v>45059</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E91">
+        <v>0.42720000000000002</v>
+      </c>
+      <c r="F91">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="G91">
+        <v>0.28449999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
         <v>45059</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="E92">
+        <v>0.44829999999999998</v>
+      </c>
+      <c r="F92">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="G92">
+        <v>0.28270000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
         <v>45059</v>
       </c>
@@ -4089,8 +4737,17 @@
       <c r="D93" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="F93">
+        <v>0.28470000000000001</v>
+      </c>
+      <c r="G93">
+        <v>0.24329999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
         <v>45059</v>
       </c>
@@ -4100,19 +4757,37 @@
       <c r="D94" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>0.3639</v>
+      </c>
+      <c r="F94">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="G94">
+        <v>0.36020000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
         <v>45059</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="E95">
+        <v>0.25259999999999999</v>
+      </c>
+      <c r="F95">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="G95">
+        <v>0.49719999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
         <v>45059</v>
       </c>
@@ -4122,96 +4797,123 @@
       <c r="D96" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="F96">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="G96">
+        <v>0.38329999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
         <v>45059</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E97">
+        <v>0.45939999999999998</v>
+      </c>
+      <c r="F97">
+        <v>0.2545</v>
+      </c>
+      <c r="G97">
+        <v>0.28610000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
-        <v>45059</v>
+        <v>45060</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E98">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="F98">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="G98">
+        <v>0.21260000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
-        <v>45060</v>
+        <v>45063</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D99" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
         <v>45063</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
         <v>45063</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
         <v>45063</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
         <v>45063</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
         <v>45063</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
         <v>45063</v>
       </c>
@@ -4222,18 +4924,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
         <v>45063</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
         <v>45063</v>
       </c>
@@ -4244,40 +4946,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="1">
         <v>45063</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D108" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="1">
         <v>45063</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="1">
         <v>45063</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="1">
         <v>45063</v>
       </c>
@@ -4288,15 +4990,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
-        <v>45063</v>
+        <v>45066</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
@@ -4315,10 +5017,10 @@
         <v>45066</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
@@ -4326,10 +5028,10 @@
         <v>45066</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
@@ -4337,10 +5039,10 @@
         <v>45066</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
@@ -4348,10 +5050,10 @@
         <v>45066</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
@@ -4359,10 +5061,10 @@
         <v>45066</v>
       </c>
       <c r="C118" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
@@ -4392,10 +5094,10 @@
         <v>45066</v>
       </c>
       <c r="C121" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
@@ -4414,10 +5116,10 @@
         <v>45066</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
@@ -4436,21 +5138,21 @@
         <v>45066</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D125" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
@@ -4458,10 +5160,10 @@
         <v>45073</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.2">
@@ -4480,10 +5182,10 @@
         <v>45073</v>
       </c>
       <c r="C129" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
@@ -4491,10 +5193,10 @@
         <v>45073</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.2">
@@ -4502,10 +5204,10 @@
         <v>45073</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
@@ -4524,10 +5226,10 @@
         <v>45073</v>
       </c>
       <c r="C133" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D133" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
@@ -4535,10 +5237,10 @@
         <v>45073</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
@@ -4546,10 +5248,10 @@
         <v>45073</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
@@ -4557,10 +5259,10 @@
         <v>45073</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
@@ -4576,13 +5278,13 @@
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="1">
-        <v>45073</v>
+        <v>45074</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
@@ -4590,21 +5292,21 @@
         <v>45074</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="1">
-        <v>45074</v>
+        <v>45077</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
@@ -4612,10 +5314,10 @@
         <v>45077</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
@@ -4623,10 +5325,10 @@
         <v>45077</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.2">
@@ -4645,10 +5347,10 @@
         <v>45077</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
@@ -4656,10 +5358,10 @@
         <v>45077</v>
       </c>
       <c r="C145" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
@@ -4667,10 +5369,10 @@
         <v>45077</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D146" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
@@ -4678,10 +5380,10 @@
         <v>45077</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D147" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
@@ -4689,10 +5391,10 @@
         <v>45077</v>
       </c>
       <c r="C148" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D148" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
@@ -4700,10 +5402,10 @@
         <v>45077</v>
       </c>
       <c r="C149" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
@@ -4711,10 +5413,10 @@
         <v>45077</v>
       </c>
       <c r="C150" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
@@ -4722,10 +5424,10 @@
         <v>45077</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D151" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
@@ -4733,21 +5435,21 @@
         <v>45077</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D152" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B153" s="1">
-        <v>45077</v>
+        <v>45080</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D153" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
@@ -4755,10 +5457,10 @@
         <v>45080</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
@@ -4766,10 +5468,10 @@
         <v>45080</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
@@ -4788,10 +5490,10 @@
         <v>45080</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.2">
@@ -4799,10 +5501,10 @@
         <v>45080</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.2">
@@ -4810,10 +5512,10 @@
         <v>45080</v>
       </c>
       <c r="C159" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D159" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
@@ -4821,10 +5523,10 @@
         <v>45080</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D160" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.2">
@@ -4832,10 +5534,10 @@
         <v>45080</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D161" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
@@ -4865,10 +5567,10 @@
         <v>45080</v>
       </c>
       <c r="C164" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D164" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.2">
@@ -4876,10 +5578,10 @@
         <v>45080</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D165" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.2">
@@ -4895,13 +5597,13 @@
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" s="1">
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.2">
@@ -4909,10 +5611,10 @@
         <v>45087</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
@@ -4920,10 +5622,10 @@
         <v>45087</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D169" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
@@ -4931,10 +5633,10 @@
         <v>45087</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D170" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.2">
@@ -4942,10 +5644,10 @@
         <v>45087</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D171" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.2">
@@ -4953,10 +5655,10 @@
         <v>45087</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.2">
@@ -4964,10 +5666,10 @@
         <v>45087</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D173" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.2">
@@ -4975,10 +5677,10 @@
         <v>45087</v>
       </c>
       <c r="C174" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D174" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
@@ -4986,10 +5688,10 @@
         <v>45087</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D175" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.2">
@@ -4997,10 +5699,10 @@
         <v>45087</v>
       </c>
       <c r="C176" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D176" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
@@ -5008,10 +5710,10 @@
         <v>45087</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D177" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.2">
@@ -5027,13 +5729,13 @@
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B179" s="1">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="C179" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D179" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.2">
@@ -5041,21 +5743,21 @@
         <v>45088</v>
       </c>
       <c r="C180" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D180" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B181" s="1">
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D181" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
@@ -5074,10 +5776,10 @@
         <v>45094</v>
       </c>
       <c r="C183" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D183" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.2">
@@ -5085,10 +5787,10 @@
         <v>45094</v>
       </c>
       <c r="C184" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D184" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.2">
@@ -5096,10 +5798,10 @@
         <v>45094</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D185" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.2">
@@ -5107,10 +5809,10 @@
         <v>45094</v>
       </c>
       <c r="C186" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D186" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.2">
@@ -5129,10 +5831,10 @@
         <v>45098</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
@@ -5140,10 +5842,10 @@
         <v>45098</v>
       </c>
       <c r="C189" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D189" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.2">
@@ -5151,10 +5853,10 @@
         <v>45098</v>
       </c>
       <c r="C190" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D190" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.2">
@@ -5162,10 +5864,10 @@
         <v>45098</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D191" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.2">
@@ -5173,10 +5875,10 @@
         <v>45098</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D192" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
@@ -5195,10 +5897,10 @@
         <v>45098</v>
       </c>
       <c r="C194" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D194" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.2">
@@ -5206,10 +5908,10 @@
         <v>45098</v>
       </c>
       <c r="C195" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D195" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.2">
@@ -5228,10 +5930,10 @@
         <v>45098</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D197" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
@@ -5239,10 +5941,10 @@
         <v>45098</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D198" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
@@ -5261,10 +5963,10 @@
         <v>45101</v>
       </c>
       <c r="C200" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.2">
@@ -5272,10 +5974,10 @@
         <v>45101</v>
       </c>
       <c r="C201" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.2">
@@ -5294,10 +5996,10 @@
         <v>45101</v>
       </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D203" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
@@ -5305,10 +6007,10 @@
         <v>45101</v>
       </c>
       <c r="C204" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D204" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
@@ -5316,10 +6018,10 @@
         <v>45101</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
@@ -5327,10 +6029,10 @@
         <v>45101</v>
       </c>
       <c r="C206" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D206" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.2">
@@ -5338,10 +6040,10 @@
         <v>45101</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D207" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.2">
@@ -5349,10 +6051,10 @@
         <v>45101</v>
       </c>
       <c r="C208" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D208" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
@@ -5360,10 +6062,10 @@
         <v>45101</v>
       </c>
       <c r="C209" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D209" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.2">
@@ -5371,10 +6073,10 @@
         <v>45101</v>
       </c>
       <c r="C210" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D210" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.2">
@@ -5382,10 +6084,10 @@
         <v>45101</v>
       </c>
       <c r="C211" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D211" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
@@ -5393,10 +6095,10 @@
         <v>45101</v>
       </c>
       <c r="C212" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D212" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
@@ -5404,10 +6106,10 @@
         <v>45101</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D213" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.2">
@@ -5415,10 +6117,10 @@
         <v>45108</v>
       </c>
       <c r="C214" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D214" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
@@ -5426,10 +6128,10 @@
         <v>45108</v>
       </c>
       <c r="C215" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D215" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
@@ -5437,10 +6139,10 @@
         <v>45108</v>
       </c>
       <c r="C216" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D216" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.2">
@@ -5448,10 +6150,10 @@
         <v>45108</v>
       </c>
       <c r="C217" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.2">
@@ -5459,10 +6161,10 @@
         <v>45108</v>
       </c>
       <c r="C218" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D218" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
@@ -5481,10 +6183,10 @@
         <v>45108</v>
       </c>
       <c r="C220" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D220" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
@@ -5492,10 +6194,10 @@
         <v>45108</v>
       </c>
       <c r="C221" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D221" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.2">
@@ -5503,10 +6205,10 @@
         <v>45108</v>
       </c>
       <c r="C222" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.2">
@@ -5514,10 +6216,10 @@
         <v>45108</v>
       </c>
       <c r="C223" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.2">
@@ -5635,10 +6337,10 @@
         <v>45115</v>
       </c>
       <c r="C234" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D234" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.2">
@@ -5646,10 +6348,10 @@
         <v>45115</v>
       </c>
       <c r="C235" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D235" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.2">
@@ -5668,10 +6370,10 @@
         <v>45115</v>
       </c>
       <c r="C237" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D237" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.2">
@@ -5701,10 +6403,10 @@
         <v>45115</v>
       </c>
       <c r="C240" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D240" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.2">
@@ -5712,10 +6414,10 @@
         <v>45115</v>
       </c>
       <c r="C241" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D241" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.2">
@@ -5723,10 +6425,10 @@
         <v>45115</v>
       </c>
       <c r="C242" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D242" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.2">
@@ -5756,10 +6458,10 @@
         <v>45115</v>
       </c>
       <c r="C245" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D245" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.2">
@@ -5767,10 +6469,10 @@
         <v>45115</v>
       </c>
       <c r="C246" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D246" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
@@ -5778,10 +6480,10 @@
         <v>45115</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D247" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.2">
@@ -5789,10 +6491,10 @@
         <v>45119</v>
       </c>
       <c r="C248" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D248" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
@@ -5800,10 +6502,10 @@
         <v>45119</v>
       </c>
       <c r="C249" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D249" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
@@ -5811,10 +6513,10 @@
         <v>45119</v>
       </c>
       <c r="C250" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D250" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.2">
@@ -5822,10 +6524,10 @@
         <v>45119</v>
       </c>
       <c r="C251" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D251" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.2">
@@ -5833,10 +6535,10 @@
         <v>45119</v>
       </c>
       <c r="C252" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D252" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.2">
@@ -5844,10 +6546,10 @@
         <v>45119</v>
       </c>
       <c r="C253" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D253" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
@@ -5855,10 +6557,10 @@
         <v>45119</v>
       </c>
       <c r="C254" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D254" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.2">
@@ -5866,10 +6568,10 @@
         <v>45119</v>
       </c>
       <c r="C255" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D255" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.2">
@@ -5877,10 +6579,10 @@
         <v>45122</v>
       </c>
       <c r="C256" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D256" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
@@ -5888,10 +6590,10 @@
         <v>45122</v>
       </c>
       <c r="C257" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D257" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.2">
@@ -5899,10 +6601,10 @@
         <v>45122</v>
       </c>
       <c r="C258" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D258" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
@@ -5910,10 +6612,10 @@
         <v>45122</v>
       </c>
       <c r="C259" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D259" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.2">
@@ -5921,10 +6623,10 @@
         <v>45122</v>
       </c>
       <c r="C260" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D260" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
@@ -5932,10 +6634,10 @@
         <v>45122</v>
       </c>
       <c r="C261" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D261" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.2">
@@ -5943,10 +6645,10 @@
         <v>45122</v>
       </c>
       <c r="C262" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D262" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.2">
@@ -5954,10 +6656,10 @@
         <v>45122</v>
       </c>
       <c r="C263" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D263" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.2">
@@ -5965,10 +6667,10 @@
         <v>45122</v>
       </c>
       <c r="C264" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D264" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.2">
@@ -5976,10 +6678,10 @@
         <v>45122</v>
       </c>
       <c r="C265" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D265" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.2">
@@ -5987,10 +6689,10 @@
         <v>45122</v>
       </c>
       <c r="C266" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D266" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.2">
@@ -6031,10 +6733,10 @@
         <v>45158</v>
       </c>
       <c r="C270" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D270" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.2">
@@ -6042,10 +6744,10 @@
         <v>45158</v>
       </c>
       <c r="C271" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D271" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.2">
@@ -6053,10 +6755,10 @@
         <v>45158</v>
       </c>
       <c r="C272" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D272" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.2">
@@ -6064,10 +6766,10 @@
         <v>45158</v>
       </c>
       <c r="C273" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D273" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.2">
@@ -6075,10 +6777,10 @@
         <v>45158</v>
       </c>
       <c r="C274" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D274" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
@@ -6086,10 +6788,10 @@
         <v>45158</v>
       </c>
       <c r="C275" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D275" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.2">
@@ -6152,10 +6854,10 @@
         <v>45158</v>
       </c>
       <c r="C281" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D281" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.2">
@@ -6174,10 +6876,10 @@
         <v>45158</v>
       </c>
       <c r="C283" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D283" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.2">
@@ -6185,10 +6887,10 @@
         <v>45164</v>
       </c>
       <c r="C284" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D284" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.2">
@@ -6196,10 +6898,10 @@
         <v>45164</v>
       </c>
       <c r="C285" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D285" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.2">
@@ -6207,10 +6909,10 @@
         <v>45164</v>
       </c>
       <c r="C286" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D286" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.2">
@@ -6218,10 +6920,10 @@
         <v>45164</v>
       </c>
       <c r="C287" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D287" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
@@ -6229,10 +6931,10 @@
         <v>45164</v>
       </c>
       <c r="C288" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D288" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.2">
@@ -6240,10 +6942,10 @@
         <v>45164</v>
       </c>
       <c r="C289" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D289" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.2">
@@ -6251,10 +6953,10 @@
         <v>45164</v>
       </c>
       <c r="C290" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D290" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.2">
@@ -6339,10 +7041,10 @@
         <v>45168</v>
       </c>
       <c r="C298" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D298" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.2">
@@ -6350,10 +7052,10 @@
         <v>45168</v>
       </c>
       <c r="C299" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D299" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.2">
@@ -6361,10 +7063,10 @@
         <v>45168</v>
       </c>
       <c r="C300" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D300" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.2">
@@ -6372,10 +7074,10 @@
         <v>45168</v>
       </c>
       <c r="C301" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D301" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
@@ -6394,10 +7096,10 @@
         <v>45168</v>
       </c>
       <c r="C303" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D303" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.2">
@@ -6405,10 +7107,10 @@
         <v>45168</v>
       </c>
       <c r="C304" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D304" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.2">
@@ -6416,10 +7118,10 @@
         <v>45168</v>
       </c>
       <c r="C305" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D305" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.2">
@@ -6427,10 +7129,10 @@
         <v>45168</v>
       </c>
       <c r="C306" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D306" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.2">
@@ -6438,10 +7140,10 @@
         <v>45168</v>
       </c>
       <c r="C307" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D307" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.2">
@@ -6449,10 +7151,10 @@
         <v>45168</v>
       </c>
       <c r="C308" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D308" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
@@ -6460,10 +7162,10 @@
         <v>45168</v>
       </c>
       <c r="C309" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D309" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.2">
@@ -6471,10 +7173,10 @@
         <v>45168</v>
       </c>
       <c r="C310" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D310" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.2">
@@ -6493,10 +7195,10 @@
         <v>45171</v>
       </c>
       <c r="C312" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D312" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.2">
@@ -6504,10 +7206,10 @@
         <v>45171</v>
       </c>
       <c r="C313" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D313" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.2">
@@ -6515,10 +7217,10 @@
         <v>45171</v>
       </c>
       <c r="C314" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D314" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.2">
@@ -6548,10 +7250,10 @@
         <v>45171</v>
       </c>
       <c r="C317" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D317" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.2">
@@ -6559,10 +7261,10 @@
         <v>45171</v>
       </c>
       <c r="C318" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D318" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.2">
@@ -6592,10 +7294,10 @@
         <v>45171</v>
       </c>
       <c r="C321" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D321" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.2">
@@ -6603,10 +7305,10 @@
         <v>45171</v>
       </c>
       <c r="C322" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D322" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
@@ -6636,10 +7338,10 @@
         <v>45178</v>
       </c>
       <c r="C325" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D325" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.2">
@@ -6647,10 +7349,10 @@
         <v>45178</v>
       </c>
       <c r="C326" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D326" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.2">
@@ -6713,10 +7415,10 @@
         <v>45185</v>
       </c>
       <c r="C332" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D332" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.2">
@@ -6735,10 +7437,10 @@
         <v>45185</v>
       </c>
       <c r="C334" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D334" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
@@ -6746,10 +7448,10 @@
         <v>45185</v>
       </c>
       <c r="C335" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D335" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
@@ -6768,10 +7470,10 @@
         <v>45185</v>
       </c>
       <c r="C337" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D337" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.2">
@@ -6779,10 +7481,10 @@
         <v>45185</v>
       </c>
       <c r="C338" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D338" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.2">
@@ -6790,10 +7492,10 @@
         <v>45185</v>
       </c>
       <c r="C339" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D339" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.2">
@@ -6845,10 +7547,10 @@
         <v>45189</v>
       </c>
       <c r="C344" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D344" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.2">
@@ -6856,10 +7558,10 @@
         <v>45189</v>
       </c>
       <c r="C345" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D345" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.2">
@@ -6878,10 +7580,10 @@
         <v>45189</v>
       </c>
       <c r="C347" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D347" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.2">
@@ -6889,10 +7591,10 @@
         <v>45189</v>
       </c>
       <c r="C348" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D348" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.2">
@@ -6900,10 +7602,10 @@
         <v>45189</v>
       </c>
       <c r="C349" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D349" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
@@ -6933,10 +7635,10 @@
         <v>45189</v>
       </c>
       <c r="C352" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D352" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.2">
@@ -6944,10 +7646,10 @@
         <v>45189</v>
       </c>
       <c r="C353" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D353" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.2">
@@ -6999,10 +7701,10 @@
         <v>45192</v>
       </c>
       <c r="C358" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D358" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.2">
@@ -7010,10 +7712,10 @@
         <v>45192</v>
       </c>
       <c r="C359" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D359" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.2">
@@ -7021,10 +7723,10 @@
         <v>45192</v>
       </c>
       <c r="C360" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D360" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.2">
@@ -7043,10 +7745,10 @@
         <v>45192</v>
       </c>
       <c r="C362" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D362" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.2">
@@ -7054,10 +7756,10 @@
         <v>45192</v>
       </c>
       <c r="C363" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D363" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
@@ -7076,10 +7778,10 @@
         <v>45192</v>
       </c>
       <c r="C365" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D365" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.2">
@@ -7087,10 +7789,10 @@
         <v>45192</v>
       </c>
       <c r="C366" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D366" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.2">
@@ -7109,10 +7811,10 @@
         <v>45192</v>
       </c>
       <c r="C368" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D368" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.2">
@@ -7120,10 +7822,10 @@
         <v>45192</v>
       </c>
       <c r="C369" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D369" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.2">
@@ -7153,10 +7855,10 @@
         <v>45199</v>
       </c>
       <c r="C372" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D372" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.2">
@@ -7164,10 +7866,10 @@
         <v>45199</v>
       </c>
       <c r="C373" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D373" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.2">
@@ -7175,10 +7877,10 @@
         <v>45199</v>
       </c>
       <c r="C374" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D374" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.2">
@@ -7186,10 +7888,10 @@
         <v>45199</v>
       </c>
       <c r="C375" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D375" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.2">
@@ -7197,10 +7899,10 @@
         <v>45199</v>
       </c>
       <c r="C376" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D376" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.2">
@@ -7208,10 +7910,10 @@
         <v>45199</v>
       </c>
       <c r="C377" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D377" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
@@ -7219,10 +7921,10 @@
         <v>45199</v>
       </c>
       <c r="C378" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D378" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.2">
@@ -7230,10 +7932,10 @@
         <v>45199</v>
       </c>
       <c r="C379" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D379" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.2">
@@ -7318,10 +8020,10 @@
         <v>45203</v>
       </c>
       <c r="C387" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D387" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.2">
@@ -7329,10 +8031,10 @@
         <v>45203</v>
       </c>
       <c r="C388" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D388" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.2">
@@ -7340,10 +8042,10 @@
         <v>45203</v>
       </c>
       <c r="C389" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D389" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.2">
@@ -7351,10 +8053,10 @@
         <v>45203</v>
       </c>
       <c r="C390" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D390" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.2">
@@ -7362,10 +8064,10 @@
         <v>45203</v>
       </c>
       <c r="C391" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D391" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
@@ -7373,10 +8075,10 @@
         <v>45203</v>
       </c>
       <c r="C392" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D392" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.2">
@@ -7384,10 +8086,10 @@
         <v>45203</v>
       </c>
       <c r="C393" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D393" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.2">
@@ -7395,10 +8097,10 @@
         <v>45203</v>
       </c>
       <c r="C394" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D394" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.2">
@@ -7450,10 +8152,10 @@
         <v>45206</v>
       </c>
       <c r="C399" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D399" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.2">
@@ -7472,10 +8174,10 @@
         <v>45206</v>
       </c>
       <c r="C401" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D401" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.2">
@@ -7483,10 +8185,10 @@
         <v>45206</v>
       </c>
       <c r="C402" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D402" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.2">
@@ -7494,10 +8196,10 @@
         <v>45206</v>
       </c>
       <c r="C403" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D403" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.2">
@@ -7505,10 +8207,10 @@
         <v>45206</v>
       </c>
       <c r="C404" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D404" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.2">
@@ -7516,10 +8218,10 @@
         <v>45206</v>
       </c>
       <c r="C405" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D405" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
@@ -7527,10 +8229,10 @@
         <v>45206</v>
       </c>
       <c r="C406" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D406" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.2">
@@ -7538,10 +8240,10 @@
         <v>45206</v>
       </c>
       <c r="C407" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D407" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.2">
@@ -7549,10 +8251,10 @@
         <v>45206</v>
       </c>
       <c r="C408" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D408" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.2">
@@ -7560,10 +8262,10 @@
         <v>45206</v>
       </c>
       <c r="C409" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D409" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.2">
@@ -7593,10 +8295,10 @@
         <v>45220</v>
       </c>
       <c r="C412" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D412" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
@@ -7604,10 +8306,10 @@
         <v>45220</v>
       </c>
       <c r="C413" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D413" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.2">
@@ -7615,10 +8317,10 @@
         <v>45220</v>
       </c>
       <c r="C414" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D414" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.2">
@@ -7626,10 +8328,10 @@
         <v>45220</v>
       </c>
       <c r="C415" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D415" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.2">
@@ -7637,10 +8339,10 @@
         <v>45220</v>
       </c>
       <c r="C416" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D416" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.2">
@@ -7648,10 +8350,10 @@
         <v>45220</v>
       </c>
       <c r="C417" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D417" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.2">
@@ -7659,10 +8361,10 @@
         <v>45220</v>
       </c>
       <c r="C418" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D418" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.2">
@@ -7670,10 +8372,10 @@
         <v>45220</v>
       </c>
       <c r="C419" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D419" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
@@ -7703,10 +8405,10 @@
         <v>45220</v>
       </c>
       <c r="C422" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D422" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.2">
@@ -7714,10 +8416,10 @@
         <v>45220</v>
       </c>
       <c r="C423" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D423" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.2">
@@ -7725,10 +8427,10 @@
         <v>45220</v>
       </c>
       <c r="C424" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D424" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.2">
@@ -7736,10 +8438,10 @@
         <v>45220</v>
       </c>
       <c r="C425" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D425" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
